--- a/src/main/resources/195-iclyj-cloud/iclyj-common-security_structure.xlsx
+++ b/src/main/resources/195-iclyj-cloud/iclyj-common-security_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="152">
   <si>
     <t>类名</t>
   </si>
@@ -37,7 +37,7 @@
     <t>com.lyj.common.security.handler.CustomAccessDeniedHandler</t>
   </si>
   <si>
-    <t>handle(javax.servlet.http.HttpServletRequest)</t>
+    <t>handle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.access.AccessDeniedException)</t>
   </si>
   <si>
     <t>public</t>
@@ -91,7 +91,7 @@
     <t>notify()</t>
   </si>
   <si>
-    <t>handle(org.springframework.security.core.AuthenticationException)</t>
+    <t>handle(org.springframework.security.core.AuthenticationException,org.springframework.security.core.Authentication)</t>
   </si>
   <si>
     <t>wait(java.lang.Long)</t>
@@ -184,7 +184,7 @@
     <t>org.springframework.security.oauth2.provider.token.ResourceServerTokenServices</t>
   </si>
   <si>
-    <t>lambda$configure$0(org.springframework.security.config.annotation.web.configurers.ExpressionUrlAuthorizationConfigurer$ExpressionInterceptUrlRegistry)</t>
+    <t>lambda$configure$0(org.springframework.security.config.annotation.web.configurers.ExpressionUrlAuthorizationConfigurer$ExpressionInterceptUrlRegistry,java.lang.String)</t>
   </si>
   <si>
     <t>configure(org.springframework.security.oauth2.config.annotation.web.configurers.ResourceServerSecurityConfigurer)</t>
@@ -229,16 +229,16 @@
     <t>lambda$null$0(java.lang.String)</t>
   </si>
   <si>
-    <t>lambda$null$3(org.springframework.web.servlet.mvc.method.RequestMappingInfo)</t>
-  </si>
-  <si>
-    <t>lambda$null$1(org.springframework.web.servlet.mvc.method.RequestMappingInfo)</t>
+    <t>lambda$null$3(org.springframework.web.servlet.mvc.method.RequestMappingInfo,com.lyj.common.security.config.IclyjInner)</t>
+  </si>
+  <si>
+    <t>lambda$null$1(org.springframework.web.servlet.mvc.method.RequestMappingInfo,com.lyj.common.security.config.IclyjInner)</t>
   </si>
   <si>
     <t>afterPropertiesSet()</t>
   </si>
   <si>
-    <t>lambda$afterPropertiesSet$4(org.springframework.web.servlet.mvc.method.RequestMappingInfo)</t>
+    <t>lambda$afterPropertiesSet$4(java.util.Map,org.springframework.web.servlet.mvc.method.RequestMappingInfo)</t>
   </si>
   <si>
     <t>lambda$null$2(java.lang.String)</t>
@@ -310,7 +310,7 @@
     <t>org.springframework.security.core.userdetails.UserDetails</t>
   </si>
   <si>
-    <t>checkUser(com.lyj.common.core.domain.R)</t>
+    <t>checkUser(com.lyj.common.core.domain.R,java.lang.String)</t>
   </si>
   <si>
     <t>loadUserByUsername(java.lang.String)</t>
@@ -458,9 +458,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>checkUser(com.lyj.common.core.domain.R,java.lang.String)</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -3908,7 +3905,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3950,16 +3947,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>145</v>
@@ -3970,13 +3967,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>145</v>
@@ -3984,16 +3981,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>145</v>
@@ -4001,16 +3998,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>145</v>
@@ -4021,13 +4018,13 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>145</v>
@@ -4038,13 +4035,13 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>145</v>
@@ -4058,10 +4055,10 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>145</v>
@@ -4069,16 +4066,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>145</v>
@@ -4086,16 +4083,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>145</v>
@@ -4106,13 +4103,13 @@
         <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>145</v>
@@ -4129,7 +4126,7 @@
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>145</v>
@@ -4137,16 +4134,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>145</v>
@@ -4163,7 +4160,7 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>145</v>
@@ -4171,16 +4168,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>145</v>
@@ -4191,13 +4188,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
         <v>145</v>
@@ -4208,7 +4205,7 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
@@ -4228,10 +4225,10 @@
         <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>145</v>
@@ -4242,13 +4239,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
         <v>145</v>
@@ -4262,10 +4259,10 @@
         <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>145</v>
@@ -4276,13 +4273,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
         <v>145</v>
@@ -4293,13 +4290,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
         <v>145</v>
@@ -4313,12 +4310,29 @@
         <v>105</v>
       </c>
       <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4337,10 +4351,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -4373,10 +4387,10 @@
         <v>141</v>
       </c>
       <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>150</v>
       </c>
       <c r="E1" t="s">
         <v>144</v>
@@ -4397,16 +4411,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>144</v>
@@ -4436,7 +4450,7 @@
         <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
         <v>144</v>
@@ -4457,16 +4471,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
         <v>144</v>
